--- a/biology/Botanique/Polygale_chevelu/Polygale_chevelu.xlsx
+++ b/biology/Botanique/Polygale_chevelu/Polygale_chevelu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polygale chevelu, Polygale à toupet
-Polygala comosa, le Polygale chevelu ou Polygale à toupet[1], est une espèce de plantes à fleurs dicotylédones de la famille des Polygalaceae, présente dans une grande partie de l'Eurasie tempérée. 
+Polygala comosa, le Polygale chevelu ou Polygale à toupet, est une espèce de plantes à fleurs dicotylédones de la famille des Polygalaceae, présente dans une grande partie de l'Eurasie tempérée. 
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polygala comosa est une chaméphyte herbacée pouvant mesurer de 8 à 30 cm[2].
-C'est une plante herbacée vivace cespiteuse[3] qui présente une tige relativement dressée et poilue[3], sans rosette de feuilles à la base[2].
-Les feuilles basales sont plus courtes que les caulinaires[2]. Les feuilles inférieures sont spatulées à abovales, obtuses et courtes[3]. Les supérieures sont linéaires ou linéaires-lancéolées, aiguës, de dimensions d'environ 20-30 x 1,5-3,5 mm[3].
-La grappe est dense et poilue[3], plus ou moins cylindrique[2], avec de 15 à 50 fleurs en général rose lilas[2],[3]. Les bractées sont deux à trois fois aussi longues que le pédicelle assez court, donnant à l’inflorescence un aspect chevelu au sommet[2]. Elles sont rosées avec une à trois nervures[3]. Les ailes sont longues de 3,5 à 7 mm et larges de 2,2 à 4,5 mm, avec des nervures peu ramifiées et peu anastomosées[2]. Elles sont de forme elliptique ou obovale-elliptique anguleuse, ciliées au bord, de couleur lilas à violet, avec la nervure longitudinale verdâtre[3]. La corolle est aussi longue ou plus longue que les ailes et mesure de 4,5 à 6,5 mm. Elle est blanche ou rose-violacée à rose-lilas. La capsule est plus courte que les ailes mais aussi large. Les lobes latéraux de la caroncule représentent presque un tiers de la graine[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polygala comosa est une chaméphyte herbacée pouvant mesurer de 8 à 30 cm.
+C'est une plante herbacée vivace cespiteuse qui présente une tige relativement dressée et poilue, sans rosette de feuilles à la base.
+Les feuilles basales sont plus courtes que les caulinaires. Les feuilles inférieures sont spatulées à abovales, obtuses et courtes. Les supérieures sont linéaires ou linéaires-lancéolées, aiguës, de dimensions d'environ 20-30 x 1,5-3,5 mm.
+La grappe est dense et poilue, plus ou moins cylindrique, avec de 15 à 50 fleurs en général rose lilas,. Les bractées sont deux à trois fois aussi longues que le pédicelle assez court, donnant à l’inflorescence un aspect chevelu au sommet. Elles sont rosées avec une à trois nervures. Les ailes sont longues de 3,5 à 7 mm et larges de 2,2 à 4,5 mm, avec des nervures peu ramifiées et peu anastomosées. Elles sont de forme elliptique ou obovale-elliptique anguleuse, ciliées au bord, de couleur lilas à violet, avec la nervure longitudinale verdâtre. La corolle est aussi longue ou plus longue que les ailes et mesure de 4,5 à 6,5 mm. Elle est blanche ou rose-violacée à rose-lilas. La capsule est plus courte que les ailes mais aussi large. Les lobes latéraux de la caroncule représentent presque un tiers de la graine.
 			Polygala comosa (Autriche).
 			Polygala comosa (Allemagne).
 			Polygala comosa (Allemagne).
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Polygala comosa est eurasiatique[3] continentale et subméditerranéenne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Polygala comosa est eurasiatique continentale et subméditerranéenne.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette herbe estivale vivace cespiteuse est calciphile, héliophile et xérophile[3]. Elle affectionne ainsi les pelouses calcicoles mésoxérophiles sur craies et calcaires secs ensoleillés[2]. On la trouve également dans les prairies subalpines sèches et rocheuses, dans les clairières et dans les lisières boisées[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette herbe estivale vivace cespiteuse est calciphile, héliophile et xérophile. Elle affectionne ainsi les pelouses calcicoles mésoxérophiles sur craies et calcaires secs ensoleillés. On la trouve également dans les prairies subalpines sèches et rocheuses, dans les clairières et dans les lisières boisées.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, Polygala comosa présente globalement le statut de préoccupation mineure (LC) avec cependant des disparités régionales avec un statut en danger (EN) en région Nord-Pas-de-Calais[2], en danger critique (CR) en régions Centre Val de Loire, Haute-Normandie et Île de France[1] et disparue au niveau régional (RE) en régions Pays de la Loire et Poitou-Charentes[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, Polygala comosa présente globalement le statut de préoccupation mineure (LC) avec cependant des disparités régionales avec un statut en danger (EN) en région Nord-Pas-de-Calais, en danger critique (CR) en régions Centre Val de Loire, Haute-Normandie et Île de France et disparue au niveau régional (RE) en régions Pays de la Loire et Poitou-Charentes.
 </t>
         </is>
       </c>
@@ -642,11 +662,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Polygala comosa a été décrite et nommée par le botaniste allemand Christian Schkuhr en 1796[5].
-Synonymes
-Selon Plants of the World online (POWO)                (10 novembre 2020)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polygala comosa a été décrite et nommée par le botaniste allemand Christian Schkuhr en 1796.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Polygale_chevelu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polygale_chevelu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (10 novembre 2020) :
 Polygala angustata Schur
 Polygala comosa var. hybrida (DC.) Petelin
 Polygala hybrida DC.
@@ -654,9 +711,43 @@
 Polygala mori Brittinger ex Opiz
 Polygala podolica DC.
 Polygala vilhelmii Podp.
-Polygala wolfgangiana Besser ex Ledeb.
-Sous-espèces
-Selon Catalogue of Life                                   (10 novembre 2020)[7] :
+Polygala wolfgangiana Besser ex Ledeb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Polygale_chevelu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polygale_chevelu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 novembre 2020) :
 Polygala comosa subsp. alibotusensis Degen &amp; Drenowski
 Polygala comosa subsp. comosa
 Polygala comosa subsp. provincialis (Rouy &amp; Fouc.) P. Fourn.</t>
